--- a/[5] Tester Results/SIGNIFICANT_RECORDER_COUNTS_PARAMETRIC.xlsx
+++ b/[5] Tester Results/SIGNIFICANT_RECORDER_COUNTS_PARAMETRIC.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/SIGNIFICANT_RECORDER_COUNTS_PARAMETRIC.xlsx
+++ b/[5] Tester Results/SIGNIFICANT_RECORDER_COUNTS_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,30 +508,10 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
         <v>3</v>
       </c>
     </row>
